--- a/medicine/Enfance/Baa,_Baa,_Black_Sheep/Baa,_Baa,_Black_Sheep.xlsx
+++ b/medicine/Enfance/Baa,_Baa,_Black_Sheep/Baa,_Baa,_Black_Sheep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Baa, Baa, Black Sheep est une chanson enfantine en anglais, dont la plus ancienne version date de 1731. Elle est chantée sur une variante de la mélodie française d'Ah ! vous dirai-je, maman, qui date de 1761.
@@ -512,7 +524,9 @@
           <t>Version originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Bah, Bah a black Sheep,
@@ -522,7 +536,7 @@
 One for my master,
 One for my Dame,
 One for the little Boy
-That lives down the lane. »[1]</t>
+That lives down the lane. »</t>
         </is>
       </c>
     </row>
@@ -550,7 +564,9 @@
           <t>Version moderne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Baa, baa, black sheep,
 Have you any wool ?
@@ -559,7 +575,7 @@
 One for the master,
 And one for the dame,
 And one for the little boy
-Who lives down the lane. »[1]</t>
+Who lives down the lane. »</t>
         </is>
       </c>
     </row>
@@ -587,7 +603,9 @@
           <t>Traduction en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Bêê, bêê mouton noir,
 Avez-vous de la laine?
